--- a/_site/Data/ChildSocialInteractionsCC.xlsx
+++ b/_site/Data/ChildSocialInteractionsCC.xlsx
@@ -62,7 +62,7 @@
 -Interacting with phone, TV, and/or computer screen (example: entertainment, learning apps, virtual schooling)</t>
   </si>
   <si>
-    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>[Display this question if "Do you have a child under the age of 6?" = Yes AND "Before the pandemic began in the US (March 2020), did you already have a child that was under the age of 6 years?" = Yes]
